--- a/server/LISTAS/mi/pasador con portacerrojo.xlsx
+++ b/server/LISTAS/mi/pasador con portacerrojo.xlsx
@@ -880,7 +880,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="n">
-        <v>45301</v>
+        <v>45302</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="16">
@@ -1086,18 +1086,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B32:C32"/>
     <mergeCell ref="A13:E13"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/pasador con portacerrojo.xlsx
+++ b/server/LISTAS/mi/pasador con portacerrojo.xlsx
@@ -880,7 +880,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="n">
-        <v>45302</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="16">
@@ -1086,18 +1086,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A13:E13"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/pasador con portacerrojo.xlsx
+++ b/server/LISTAS/mi/pasador con portacerrojo.xlsx
@@ -880,7 +880,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="16">

--- a/server/LISTAS/mi/pasador con portacerrojo.xlsx
+++ b/server/LISTAS/mi/pasador con portacerrojo.xlsx
@@ -880,7 +880,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="16">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="C30" s="45" t="n"/>
       <c r="D30" s="28" t="n">
-        <v>993.1849999999999</v>
+        <v>1956.522</v>
       </c>
     </row>
     <row r="31" ht="19.5" customHeight="1" s="16">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C31" s="45" t="n"/>
       <c r="D31" s="28" t="n">
-        <v>1176.06</v>
+        <v>2316.776</v>
       </c>
     </row>
     <row r="32" ht="19.5" customHeight="1" s="16">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="C32" s="45" t="n"/>
       <c r="D32" s="28" t="n">
-        <v>1327.989</v>
+        <v>2616.068</v>
       </c>
     </row>
     <row r="33" ht="19.5" customHeight="1" s="16">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="C33" s="45" t="n"/>
       <c r="D33" s="28" t="n">
-        <v>1674.064</v>
+        <v>3297.817</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" s="16">
@@ -1086,18 +1086,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A13:E13"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/pasador con portacerrojo.xlsx
+++ b/server/LISTAS/mi/pasador con portacerrojo.xlsx
@@ -880,7 +880,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="16">

--- a/server/LISTAS/mi/pasador con portacerrojo.xlsx
+++ b/server/LISTAS/mi/pasador con portacerrojo.xlsx
@@ -880,7 +880,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="16">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="C30" s="45" t="n"/>
       <c r="D30" s="28" t="n">
-        <v>1956.522</v>
+        <v>993.1849999999999</v>
       </c>
     </row>
     <row r="31" ht="19.5" customHeight="1" s="16">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C31" s="45" t="n"/>
       <c r="D31" s="28" t="n">
-        <v>2316.776</v>
+        <v>1176.06</v>
       </c>
     </row>
     <row r="32" ht="19.5" customHeight="1" s="16">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="C32" s="45" t="n"/>
       <c r="D32" s="28" t="n">
-        <v>2616.068</v>
+        <v>1327.989</v>
       </c>
     </row>
     <row r="33" ht="19.5" customHeight="1" s="16">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="C33" s="45" t="n"/>
       <c r="D33" s="28" t="n">
-        <v>3297.817</v>
+        <v>1674.064</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" s="16">
@@ -1086,18 +1086,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A13:E13"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/pasador con portacerrojo.xlsx
+++ b/server/LISTAS/mi/pasador con portacerrojo.xlsx
@@ -880,7 +880,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="16">
@@ -1086,18 +1086,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A13:E13"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/pasador con portacerrojo.xlsx
+++ b/server/LISTAS/mi/pasador con portacerrojo.xlsx
@@ -880,7 +880,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="16">
@@ -1086,18 +1086,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A13:E13"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/pasador con portacerrojo.xlsx
+++ b/server/LISTAS/mi/pasador con portacerrojo.xlsx
@@ -880,7 +880,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="16">
@@ -1086,18 +1086,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A13:E13"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/pasador con portacerrojo.xlsx
+++ b/server/LISTAS/mi/pasador con portacerrojo.xlsx
@@ -880,7 +880,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="n">
-        <v>45406</v>
+        <v>45415</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="16">

--- a/server/LISTAS/mi/pasador con portacerrojo.xlsx
+++ b/server/LISTAS/mi/pasador con portacerrojo.xlsx
@@ -880,7 +880,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="n">
-        <v>45415</v>
+        <v>45436</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="16">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="C30" s="45" t="n"/>
       <c r="D30" s="28" t="n">
-        <v>993.1849999999999</v>
+        <v>1956.522</v>
       </c>
     </row>
     <row r="31" ht="19.5" customHeight="1" s="16">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C31" s="45" t="n"/>
       <c r="D31" s="28" t="n">
-        <v>1176.06</v>
+        <v>2316.776</v>
       </c>
     </row>
     <row r="32" ht="19.5" customHeight="1" s="16">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="C32" s="45" t="n"/>
       <c r="D32" s="28" t="n">
-        <v>1327.989</v>
+        <v>2616.068</v>
       </c>
     </row>
     <row r="33" ht="19.5" customHeight="1" s="16">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="C33" s="45" t="n"/>
       <c r="D33" s="28" t="n">
-        <v>1674.064</v>
+        <v>3297.817</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" s="16">
@@ -1086,18 +1086,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A13:E13"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
